--- a/rto_wise_data/2022/Uttar Pradesh(77)/Hapur - UP37( 23-JAN-2018 ).xlsx
+++ b/rto_wise_data/2022/Uttar Pradesh(77)/Hapur - UP37( 23-JAN-2018 ).xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
-  <si>
-    <t>Maker Month Wise Data  of HAMIRPUR(UP) - UP91 , Uttar Pradesh (2022)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
+  <si>
+    <t>Maker Month Wise Data  of Hapur - UP37 , Uttar Pradesh (2022)</t>
   </si>
   <si>
     <t>S No</t>
@@ -77,34 +77,88 @@
     <t>0</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>ATHER ENERGY LTD</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>BAJAJ AUTO LTD</t>
+  </si>
+  <si>
+    <t>BOUNCE ELECTRIC 1 PVT LTD</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>GOREEN E-MOBILITY PVT LTD</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>HERO ELECTRIC VEHICLES PVT. LTD</t>
   </si>
   <si>
-    <t>4</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>KINETIC GREEN ENERGY &amp; POWER SOLUTIONS LTD</t>
+  </si>
+  <si>
+    <t>OKAYA EV PVT LTD</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>OKINAWA AUTOTECH PVT LTD</t>
   </si>
   <si>
-    <t>5</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>104</t>
   </si>
   <si>
     <t>OLA ELECTRIC TECHNOLOGIES PVT LTD</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>PUR ENERGY PVT LTD</t>
+    <t>REVOLT INTELLICORP PVT LTD</t>
   </si>
 </sst>
 </file>
@@ -179,14 +233,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="4.2109375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="4.515625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.15234375" customWidth="true" bestFit="true"/>
@@ -199,7 +253,7 @@
     <col min="12" max="12" width="4.88671875" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="5.11328125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="4.89453125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="4.54296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -279,19 +333,19 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -300,7 +354,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -320,60 +374,60 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -400,16 +454,16 @@
         <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N7" t="s">
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -420,7 +474,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -432,13 +486,13 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
@@ -456,7 +510,7 @@
         <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -467,93 +521,281 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15"/>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:O1"/>
